--- a/db/NCCU-421-NostalgicMovie.xlsx
+++ b/db/NCCU-421-NostalgicMovie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E7DC96-A4D3-DA4B-9E07-D91181704119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDCCCC1-F8E7-3145-8049-1112A450AFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="7220" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="5680" yWindow="5720" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="懷舊電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="124">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">          </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>印度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,6 +473,14 @@
   </si>
   <si>
     <t>NCCU-32-NM501.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountryB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,45 +845,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="43.83203125" customWidth="1"/>
+    <col min="2" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="7" max="7" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>101</v>
       </c>
@@ -887,19 +894,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>102</v>
       </c>
@@ -907,19 +917,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>103</v>
       </c>
@@ -927,19 +940,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>104</v>
       </c>
@@ -947,19 +963,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>105</v>
       </c>
@@ -967,19 +986,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>106</v>
       </c>
@@ -987,19 +1009,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1007,19 +1032,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1027,19 +1055,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>109</v>
       </c>
@@ -1047,19 +1078,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1067,19 +1101,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>111</v>
       </c>
@@ -1087,19 +1124,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>112</v>
       </c>
@@ -1107,19 +1147,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>113</v>
       </c>
@@ -1127,19 +1170,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>114</v>
       </c>
@@ -1147,19 +1193,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>115</v>
       </c>
@@ -1167,19 +1216,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
-        <v>85</v>
-      </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1187,19 +1239,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>201</v>
       </c>
@@ -1207,16 +1262,19 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
       <c r="F18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>202</v>
       </c>
@@ -1224,16 +1282,19 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
       <c r="F19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>203</v>
       </c>
@@ -1241,16 +1302,19 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
       <c r="F20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>204</v>
       </c>
@@ -1258,16 +1322,19 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
-        <v>47</v>
-      </c>
       <c r="F21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>205</v>
       </c>
@@ -1275,16 +1342,19 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
       <c r="F22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>206</v>
       </c>
@@ -1292,16 +1362,19 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>207</v>
       </c>
@@ -1309,16 +1382,19 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" t="s">
-        <v>50</v>
-      </c>
       <c r="F24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>208</v>
       </c>
@@ -1326,16 +1402,19 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
       <c r="F25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>209</v>
       </c>
@@ -1343,16 +1422,19 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
         <v>14</v>
       </c>
-      <c r="E26" t="s">
-        <v>52</v>
-      </c>
       <c r="F26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>210</v>
       </c>
@@ -1360,16 +1442,19 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" t="s">
-        <v>53</v>
-      </c>
       <c r="F27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>211</v>
       </c>
@@ -1377,16 +1462,19 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="E28" t="s">
-        <v>54</v>
-      </c>
       <c r="F28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>212</v>
       </c>
@@ -1394,16 +1482,19 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
         <v>17</v>
       </c>
-      <c r="E29" t="s">
-        <v>55</v>
-      </c>
       <c r="F29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="G29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>301</v>
       </c>
@@ -1411,16 +1502,19 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
         <v>19</v>
       </c>
-      <c r="E30" t="s">
-        <v>56</v>
-      </c>
       <c r="F30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>401</v>
       </c>
@@ -1428,44 +1522,42 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
         <v>21</v>
       </c>
-      <c r="D31" t="s">
-        <v>87</v>
-      </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>501</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
         <v>23</v>
       </c>
-      <c r="D32" t="s">
-        <v>88</v>
-      </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="G32" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-421-NostalgicMovie.xlsx
+++ b/db/NCCU-421-NostalgicMovie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDCCCC1-F8E7-3145-8049-1112A450AFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE92220-A469-7346-8BAC-61B6AE28B22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5680" yWindow="5720" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Country</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Figure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,6 +477,10 @@
   </si>
   <si>
     <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountryA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,10 +848,10 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -868,22 +868,22 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>89</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -920,16 +920,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -966,16 +966,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1035,16 +1035,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1061,13 +1061,13 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1081,16 +1081,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1127,16 +1127,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1153,13 +1153,13 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1173,16 +1173,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1196,16 +1196,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1222,13 +1222,13 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1245,13 +1245,13 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1268,10 +1268,10 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1288,10 +1288,10 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1308,10 +1308,10 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1328,10 +1328,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1348,10 +1348,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1368,10 +1368,10 @@
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1388,10 +1388,10 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1408,10 +1408,10 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1428,10 +1428,10 @@
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1448,10 +1448,10 @@
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1468,10 +1468,10 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1488,10 +1488,10 @@
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1502,16 +1502,16 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1522,19 +1522,19 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1545,19 +1545,19 @@
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-421-NostalgicMovie.xlsx
+++ b/db/NCCU-421-NostalgicMovie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE92220-A469-7346-8BAC-61B6AE28B22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A88372A-5334-8B48-B33A-35D8594B43F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="5720" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="11680" yWindow="14320" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="懷舊電影" sheetId="1" r:id="rId1"/>
@@ -848,10 +848,10 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31:C32"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/db/NCCU-421-NostalgicMovie.xlsx
+++ b/db/NCCU-421-NostalgicMovie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A88372A-5334-8B48-B33A-35D8594B43F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D956DD9-07B2-DD4E-BC9B-F676302C937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="14320" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="1820" yWindow="3180" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="懷舊電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="136">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,48 @@
   </si>
   <si>
     <t>CountryA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火線追緝令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-117.jpeg</t>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-118.jpeg</t>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-119.jpeg</t>
+  </si>
+  <si>
+    <t>NCCU-32-NM117.html</t>
+  </si>
+  <si>
+    <t>NCCU-32-NM118.html</t>
+  </si>
+  <si>
+    <t>NCCU-32-NM119.html</t>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-402.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCCU-32-NM402.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英烈千秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everlasting Glory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,18 +887,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="24" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" customWidth="1"/>
     <col min="5" max="5" width="40.83203125" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
@@ -1256,67 +1299,64 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>203</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1325,18 +1365,18 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -1345,18 +1385,18 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -1365,18 +1405,18 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -1385,18 +1425,18 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -1405,18 +1445,18 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -1425,18 +1465,18 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -1445,18 +1485,18 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -1465,18 +1505,18 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -1485,78 +1525,161 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>401</v>
+        <v>211</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
+        <v>212</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>301</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>401</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>402</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
         <v>501</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" t="s">
         <v>122</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D36" t="s">
         <v>23</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E36" t="s">
         <v>86</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F36" t="s">
         <v>56</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G36" t="s">
         <v>120</v>
       </c>
     </row>

--- a/db/NCCU-421-NostalgicMovie.xlsx
+++ b/db/NCCU-421-NostalgicMovie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D956DD9-07B2-DD4E-BC9B-F676302C937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF189B5-EF0D-E147-B1E8-27193A4CBCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="3180" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="15860" yWindow="7100" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="懷舊電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="139">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +523,16 @@
   </si>
   <si>
     <t>Everlasting Glory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-213.jpeg</t>
+  </si>
+  <si>
+    <t>NCCU-32-NM213.html</t>
+  </si>
+  <si>
+    <t>七武士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,13 +897,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="1" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1596,50 +1606,47 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="G33" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
         <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -1648,38 +1655,61 @@
         <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>501</v>
+        <v>402</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>122</v>
       </c>
       <c r="D36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>501</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
         <v>23</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>86</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>56</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>120</v>
       </c>
     </row>

--- a/db/NCCU-421-NostalgicMovie.xlsx
+++ b/db/NCCU-421-NostalgicMovie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF189B5-EF0D-E147-B1E8-27193A4CBCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABA0EFC-13E6-924D-AC8A-0481212E5BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15860" yWindow="7100" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="2400" yWindow="3800" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="懷舊電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="141">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,6 +533,14 @@
   </si>
   <si>
     <t>七武士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪勇七蛟龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Magnificent Seve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,10 +908,10 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1317,6 +1325,12 @@
       <c r="C18" t="s">
         <v>0</v>
       </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="s">
+        <v>140</v>
+      </c>
       <c r="F18" t="s">
         <v>126</v>
       </c>

--- a/db/NCCU-421-NostalgicMovie.xlsx
+++ b/db/NCCU-421-NostalgicMovie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABA0EFC-13E6-924D-AC8A-0481212E5BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FEA415-40D2-0C41-9EE7-DA82F707971F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="3800" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="2380" yWindow="3800" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="懷舊電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="157">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,6 +542,62 @@
   <si>
     <t>The Magnificent Seve</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情婦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Witness for the Prosecution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-120.jpeg</t>
+  </si>
+  <si>
+    <t>NCCU-32-NM120.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 偷龍轉鳳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How to Steal a Million</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切腹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-214.jpeg</t>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-215.jpeg</t>
+  </si>
+  <si>
+    <t>NCCU-32-NM214.html</t>
+  </si>
+  <si>
+    <t>NCCU-32-NM215.html</t>
+  </si>
+  <si>
+    <t>悲情城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A City of Sadness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-403.jpeg</t>
+  </si>
+  <si>
+    <t>NCCU-32-NM403.html</t>
   </si>
 </sst>
 </file>
@@ -905,13 +961,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="1" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1348,6 +1404,12 @@
       <c r="C19" t="s">
         <v>0</v>
       </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
       <c r="F19" t="s">
         <v>127</v>
       </c>
@@ -1380,27 +1442,30 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>145</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -1409,18 +1474,18 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -1429,18 +1494,18 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -1449,18 +1514,18 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -1469,18 +1534,18 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -1489,18 +1554,18 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -1509,18 +1574,18 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -1529,18 +1594,18 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -1549,18 +1614,18 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -1569,18 +1634,18 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -1589,18 +1654,18 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -1609,18 +1674,18 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -1629,101 +1694,184 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>401</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>402</v>
+        <v>215</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F36" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
         <v>122</v>
       </c>
       <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>401</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>402</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>403</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>501</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
         <v>23</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E41" t="s">
         <v>86</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F41" t="s">
         <v>56</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G41" t="s">
         <v>120</v>
       </c>
     </row>

--- a/db/NCCU-421-NostalgicMovie.xlsx
+++ b/db/NCCU-421-NostalgicMovie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FEA415-40D2-0C41-9EE7-DA82F707971F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EE9C6A-39F6-0D4B-AE5C-4FA309565297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="3800" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="11540" yWindow="5720" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="懷舊電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="164">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -598,6 +598,34 @@
   </si>
   <si>
     <t>NCCU-32-NM403.html</t>
+  </si>
+  <si>
+    <t>中國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅柿子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶舘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-601.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCCU-32-NM601.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-602.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCCU-32-NM602.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -961,13 +989,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="1" topLeftCell="O21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1875,6 +1903,46 @@
         <v>120</v>
       </c>
     </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>601</v>
+      </c>
+      <c r="B42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>602</v>
+      </c>
+      <c r="B43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/NCCU-421-NostalgicMovie.xlsx
+++ b/db/NCCU-421-NostalgicMovie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EE9C6A-39F6-0D4B-AE5C-4FA309565297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1294A5ED-A1A3-3944-B27E-714992FC7F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="5720" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="5120" yWindow="2340" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="懷舊電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="180">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -625,6 +625,62 @@
   </si>
   <si>
     <t>NCCU-32-NM602.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未代武士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Last Samurai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-121.jpeg</t>
+  </si>
+  <si>
+    <t>NCCU-32-NM121.html</t>
+  </si>
+  <si>
+    <t>中國香港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投名狀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-603.jpeg</t>
+  </si>
+  <si>
+    <t>NCCU-32-NM603.html</t>
+  </si>
+  <si>
+    <t>The Warlords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-604.jpeg</t>
+  </si>
+  <si>
+    <t>NCCU-32-NM604.html</t>
+  </si>
+  <si>
+    <t>刺馬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-122.jpeg</t>
+  </si>
+  <si>
+    <t>NCCU-32-NM122.html</t>
+  </si>
+  <si>
+    <t>永不妥協</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erin Brockovich</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,13 +1045,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="O21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="1" topLeftCell="O10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1493,47 +1549,53 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>164</v>
+      </c>
+      <c r="E22" t="s">
+        <v>165</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>178</v>
+      </c>
+      <c r="E23" t="s">
+        <v>179</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -1542,18 +1604,18 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -1562,18 +1624,18 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -1582,18 +1644,18 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -1602,18 +1664,18 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -1622,18 +1684,18 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -1642,18 +1704,18 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -1662,18 +1724,18 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -1682,18 +1744,18 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -1702,18 +1764,18 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -1722,18 +1784,18 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -1742,18 +1804,18 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -1762,18 +1824,18 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -1782,84 +1844,78 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="G37" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>401</v>
+        <v>215</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="G38" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>402</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
         <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="G39" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -1868,79 +1924,168 @@
         <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>501</v>
+        <v>402</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
         <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="G41" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>601</v>
+        <v>403</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
         <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>153</v>
+      </c>
+      <c r="E42" t="s">
+        <v>154</v>
       </c>
       <c r="F42" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>602</v>
+        <v>501</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>122</v>
       </c>
       <c r="D43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>601</v>
+      </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>602</v>
+      </c>
+      <c r="B45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
         <v>159</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F45" t="s">
         <v>162</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G45" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>603</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" t="s">
+        <v>170</v>
+      </c>
+      <c r="G46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>604</v>
+      </c>
+      <c r="B47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" t="s">
+        <v>173</v>
+      </c>
+      <c r="G47" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/db/NCCU-421-NostalgicMovie.xlsx
+++ b/db/NCCU-421-NostalgicMovie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1294A5ED-A1A3-3944-B27E-714992FC7F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA45C51B-8E46-774F-B721-B2241573E80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="2340" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="8420" yWindow="5720" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="懷舊電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="182">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,6 +681,14 @@
   </si>
   <si>
     <t>Erin Brockovich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.com/ep-h48-1-1.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +696,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -699,6 +707,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -722,18 +739,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1045,13 +1069,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="O10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1061,10 +1085,11 @@
     <col min="4" max="4" width="32.33203125" customWidth="1"/>
     <col min="5" max="5" width="40.83203125" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="43.83203125" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1086,8 +1111,11 @@
       <c r="G1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1109,8 +1137,11 @@
       <c r="G2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1133,7 +1164,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1156,7 +1187,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1179,7 +1210,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1202,7 +1233,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1225,7 +1256,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1248,7 +1279,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1271,7 +1302,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>109</v>
       </c>
@@ -1294,7 +1325,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1317,7 +1348,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>111</v>
       </c>
@@ -1340,7 +1371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>112</v>
       </c>
@@ -1363,7 +1394,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>113</v>
       </c>
@@ -1386,7 +1417,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>114</v>
       </c>
@@ -1409,7 +1440,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>115</v>
       </c>
@@ -2090,6 +2121,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{D995CDB8-24C0-8842-A7C7-7A099284181D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/NCCU-421-NostalgicMovie.xlsx
+++ b/db/NCCU-421-NostalgicMovie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA45C51B-8E46-774F-B721-B2241573E80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11ECCB0-FBDC-0F45-B7E4-E4767F624A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="5720" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="7060" yWindow="2420" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="懷舊電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="186">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,6 +689,21 @@
   </si>
   <si>
     <t>https://gimytv.com/ep-h48-1-1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二怒漢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Twelve Angry Me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCCU-32-NM123.html</t>
+  </si>
+  <si>
+    <t>fig/NCCU-32-Movie/NCCU-32-123.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,13 +1084,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1626,27 +1641,30 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>182</v>
+      </c>
+      <c r="E24" t="s">
+        <v>183</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -1655,18 +1673,18 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -1675,18 +1693,18 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -1695,18 +1713,18 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -1715,18 +1733,18 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -1735,18 +1753,18 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -1755,18 +1773,18 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -1775,18 +1793,18 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -1795,18 +1813,18 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -1815,18 +1833,18 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -1835,18 +1853,18 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -1855,18 +1873,18 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -1875,18 +1893,18 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -1895,18 +1913,18 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G37" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -1915,61 +1933,58 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
         <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -1978,21 +1993,21 @@
         <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
@@ -2001,64 +2016,67 @@
         <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F42" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="G42" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>501</v>
+        <v>403</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
         <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="G43" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>601</v>
+        <v>501</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
         <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>86</v>
       </c>
       <c r="F44" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B45" t="s">
         <v>157</v>
@@ -2067,55 +2085,75 @@
         <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
         <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
-      </c>
-      <c r="E46" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F46" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G46" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
         <v>122</v>
       </c>
       <c r="D47" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>604</v>
+      </c>
+      <c r="B48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" t="s">
         <v>175</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>173</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" t="s">
         <v>174</v>
       </c>
     </row>

--- a/db/NCCU-421-NostalgicMovie.xlsx
+++ b/db/NCCU-421-NostalgicMovie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11ECCB0-FBDC-0F45-B7E4-E4767F624A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD514D36-EC61-004F-A778-2773BD0C6478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="2420" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="7060" yWindow="2400" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="懷舊電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="228">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,6 +704,171 @@
   </si>
   <si>
     <t>fig/NCCU-32-Movie/NCCU-32-123.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jumi.tv/vod/20228.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gimyvod.cc/vod-read-id-8858.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gimyvod.cc/vod-read-id-17598.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.com/v_3fI.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gimyvod.cc/vod-read-id-25663.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimy.ai/v_YmC.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimy.one/video/200397297.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.com/v_AoA.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.in/vod/200780811.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.com/v_n9f.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.in/vod/199795030.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.in/vod/201676492.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gimyvod.cc/vod-read-id-49070.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gimy.ai/v_RvF.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimy.cc/video/13170-1-1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimy.one/video/200097946.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.com/v_blF.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gimyvod.cc/vod-read-id-17204.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimy.one/video/200413901.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gimyvod.cc/vod-read-id-17779.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gimyvod.cc/vod-read-id-13477.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.in/eps/19573150-hd.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jumy.tv/d/70360.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gimyvod.cc/vod-read-id-13970.html</t>
+  </si>
+  <si>
+    <t>https://www.gimyvod.cc/vod-read-id-93807.html</t>
+  </si>
+  <si>
+    <t>https://gimy.club/vod/detail/id/49022.html</t>
+  </si>
+  <si>
+    <t>https://www.gimyvod.cc/vod-read-id-16530.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.com/v_foQ.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.com/v_WUJ.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gimyvod.cc/vod-read-id-8921.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.in/eps/19627228-gao-qing.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.com/v_D0g.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimy.cc/detail/31157.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimy.app/vod/140001.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimy.club/vod/detail/id/90639.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gimyvod.cc/vod-read-id-16755.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimy.one/video/200814469.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.in/eps/19965945-hd.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.in/eps/201073581-15.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimytv.in/vod/200749397.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimy-tv.com/vod/detail/id/61768.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gimy.club/vod/detail/id/124739.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,7 +1255,7 @@
       <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1178,6 +1343,9 @@
       <c r="G3" t="s">
         <v>91</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
@@ -1201,6 +1369,9 @@
       <c r="G4" t="s">
         <v>92</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
@@ -1270,6 +1441,9 @@
       <c r="G7" t="s">
         <v>95</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
@@ -1293,6 +1467,9 @@
       <c r="G8" t="s">
         <v>96</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
@@ -1316,6 +1493,9 @@
       <c r="G9" t="s">
         <v>97</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
@@ -1339,6 +1519,9 @@
       <c r="G10" t="s">
         <v>98</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
@@ -1362,6 +1545,9 @@
       <c r="G11" t="s">
         <v>99</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
@@ -1385,6 +1571,9 @@
       <c r="G12" t="s">
         <v>100</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
@@ -1408,6 +1597,9 @@
       <c r="G13" t="s">
         <v>101</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
@@ -1454,6 +1646,9 @@
       <c r="G15" t="s">
         <v>103</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
@@ -1477,8 +1672,11 @@
       <c r="G16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1500,8 +1698,11 @@
       <c r="G17" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>117</v>
       </c>
@@ -1523,8 +1724,11 @@
       <c r="G18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>118</v>
       </c>
@@ -1547,7 +1751,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>119</v>
       </c>
@@ -1569,8 +1773,11 @@
       <c r="G20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>120</v>
       </c>
@@ -1592,8 +1799,11 @@
       <c r="G21" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>121</v>
       </c>
@@ -1615,8 +1825,11 @@
       <c r="G22" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>122</v>
       </c>
@@ -1638,8 +1851,11 @@
       <c r="G23" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>123</v>
       </c>
@@ -1661,8 +1877,11 @@
       <c r="G24" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>201</v>
       </c>
@@ -1681,8 +1900,11 @@
       <c r="G25" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>202</v>
       </c>
@@ -1701,8 +1923,11 @@
       <c r="G26" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>203</v>
       </c>
@@ -1721,8 +1946,11 @@
       <c r="G27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>204</v>
       </c>
@@ -1741,8 +1969,11 @@
       <c r="G28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>205</v>
       </c>
@@ -1761,8 +1992,11 @@
       <c r="G29" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>206</v>
       </c>
@@ -1781,8 +2015,11 @@
       <c r="G30" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>207</v>
       </c>
@@ -1801,8 +2038,11 @@
       <c r="G31" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>208</v>
       </c>
@@ -1821,8 +2061,11 @@
       <c r="G32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>209</v>
       </c>
@@ -1841,8 +2084,11 @@
       <c r="G33" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>210</v>
       </c>
@@ -1861,8 +2107,11 @@
       <c r="G34" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>211</v>
       </c>
@@ -1881,8 +2130,11 @@
       <c r="G35" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>212</v>
       </c>
@@ -1901,8 +2153,11 @@
       <c r="G36" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>213</v>
       </c>
@@ -1921,8 +2176,11 @@
       <c r="G37" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>214</v>
       </c>
@@ -1941,8 +2199,11 @@
       <c r="G38" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>215</v>
       </c>
@@ -1961,8 +2222,11 @@
       <c r="G39" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>301</v>
       </c>
@@ -1981,8 +2245,11 @@
       <c r="G40" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>401</v>
       </c>
@@ -2004,8 +2271,11 @@
       <c r="G41" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>402</v>
       </c>
@@ -2027,8 +2297,11 @@
       <c r="G42" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>403</v>
       </c>
@@ -2050,8 +2323,11 @@
       <c r="G43" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>501</v>
       </c>
@@ -2073,8 +2349,11 @@
       <c r="G44" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>601</v>
       </c>
@@ -2093,8 +2372,11 @@
       <c r="G45" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>602</v>
       </c>
@@ -2113,8 +2395,11 @@
       <c r="G46" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>603</v>
       </c>
@@ -2136,8 +2421,11 @@
       <c r="G47" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>604</v>
       </c>
@@ -2155,12 +2443,54 @@
       </c>
       <c r="G48" t="s">
         <v>174</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{D995CDB8-24C0-8842-A7C7-7A099284181D}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{9B0788D3-74EC-7047-9837-B19237EC48F7}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{C109A1BA-284D-E748-8D9A-3257BB988B58}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{F986DFE5-BE46-AD42-93A6-57E82F1C281A}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{B62BAA86-040D-3D45-B3FB-AF449FDC07E9}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{3DDFA924-363E-FC4A-9F30-388042EC2127}"/>
+    <hyperlink ref="H11" r:id="rId7" xr:uid="{14791460-713B-4F44-BFF1-175CBF0C5747}"/>
+    <hyperlink ref="H12" r:id="rId8" xr:uid="{96447884-717A-0445-9CC9-E8C701BDA827}"/>
+    <hyperlink ref="H13" r:id="rId9" xr:uid="{1CBAAC39-A780-4444-9945-2CD887798411}"/>
+    <hyperlink ref="H15" r:id="rId10" xr:uid="{82E6A679-F1E8-534B-9864-9C12158D209D}"/>
+    <hyperlink ref="H16" r:id="rId11" xr:uid="{59BA893B-8004-9144-90DB-DFC2C62D5E10}"/>
+    <hyperlink ref="H17" r:id="rId12" xr:uid="{8E436B14-144E-C44C-B336-7230132DCD84}"/>
+    <hyperlink ref="H18" r:id="rId13" xr:uid="{857D46A1-4CB6-CA4F-8C5C-D5FFFD4FD994}"/>
+    <hyperlink ref="H20" r:id="rId14" xr:uid="{3646289C-6B1E-C54C-BF3F-B35D5DC50E64}"/>
+    <hyperlink ref="H21" r:id="rId15" xr:uid="{53FE0AB8-4C5C-F549-9D97-C76D6D7255F6}"/>
+    <hyperlink ref="H22" r:id="rId16" xr:uid="{5A646FB1-59B6-BD47-85C8-B5C35C2B18CB}"/>
+    <hyperlink ref="H23" r:id="rId17" xr:uid="{41B55B40-DBFC-2E4B-B7A7-10EEEE024445}"/>
+    <hyperlink ref="H24" r:id="rId18" xr:uid="{22CA6DFF-9AA0-6C4F-BD36-8BCD0FAC9DAF}"/>
+    <hyperlink ref="H25" r:id="rId19" xr:uid="{DEC19E04-52F1-2F40-88BB-0655F2FBA485}"/>
+    <hyperlink ref="H26" r:id="rId20" xr:uid="{3BCF815C-28FC-884B-BB1C-996C496C709A}"/>
+    <hyperlink ref="H27" r:id="rId21" xr:uid="{371EF8D0-0498-7940-B1A8-5201C9281F15}"/>
+    <hyperlink ref="H28" r:id="rId22" xr:uid="{034916C9-1CC4-6A4A-8E06-9F91C4DF4A04}"/>
+    <hyperlink ref="H29" r:id="rId23" xr:uid="{3CD5208F-3FD0-9E43-8C2D-4833B3B2CE4E}"/>
+    <hyperlink ref="H30" r:id="rId24" xr:uid="{C3B634FD-72CE-F541-A0E3-FFAD7B7D5183}"/>
+    <hyperlink ref="H34" r:id="rId25" xr:uid="{7E98D375-45CB-9F44-9C68-11CBF3A84A5C}"/>
+    <hyperlink ref="H35" r:id="rId26" xr:uid="{F5A14371-984A-1A4D-847C-D2783C0E4B58}"/>
+    <hyperlink ref="H36" r:id="rId27" xr:uid="{1E235D51-4C81-1C45-8442-795754158D12}"/>
+    <hyperlink ref="H37" r:id="rId28" xr:uid="{40A232D3-45C9-6747-91AF-BBFA1DFA08D4}"/>
+    <hyperlink ref="H38" r:id="rId29" xr:uid="{20BA03A7-32B5-C740-AEFC-CE9375C79B40}"/>
+    <hyperlink ref="H39" r:id="rId30" xr:uid="{A04F14BD-3F90-1744-9F81-08762E7849A1}"/>
+    <hyperlink ref="H40" r:id="rId31" xr:uid="{329D4A67-589C-D04D-A5F5-80A19364C7A4}"/>
+    <hyperlink ref="H41" r:id="rId32" xr:uid="{0F9FFC27-7797-064F-B389-CB83FBB41153}"/>
+    <hyperlink ref="H42" r:id="rId33" xr:uid="{D11C2D25-D089-424A-97D0-D2598DFE2324}"/>
+    <hyperlink ref="H43" r:id="rId34" xr:uid="{557DE8F4-BAAB-664F-82A7-3BED2EC5C070}"/>
+    <hyperlink ref="H44" r:id="rId35" xr:uid="{C7A03DA4-F507-EC4C-B731-7E69D01B053D}"/>
+    <hyperlink ref="H45" r:id="rId36" xr:uid="{1BF9F36F-4E8A-CC46-9818-DB6F0E21B33E}"/>
+    <hyperlink ref="H46" r:id="rId37" xr:uid="{C814302F-D7B4-544A-BB1F-66D808DCED0E}"/>
+    <hyperlink ref="H47" r:id="rId38" xr:uid="{F7555A3C-2844-7040-8735-A1AD680CCF5A}"/>
+    <hyperlink ref="H48" r:id="rId39" xr:uid="{54BF9FEF-1458-1C41-A7ED-F9028853231F}"/>
+    <hyperlink ref="H3" r:id="rId40" xr:uid="{9DC7E79D-4131-7042-B41F-068588A78D25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/NCCU-421-NostalgicMovie.xlsx
+++ b/db/NCCU-421-NostalgicMovie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD514D36-EC61-004F-A778-2773BD0C6478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB04C8A-0CC3-FF4A-923C-746F86C59A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="2400" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="1" topLeftCell="O19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D6" sqref="D6"/>

--- a/db/NCCU-421-NostalgicMovie.xlsx
+++ b/db/NCCU-421-NostalgicMovie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB04C8A-0CC3-FF4A-923C-746F86C59A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F3752B-25AB-9748-BB15-DD9F8050AA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="2400" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="7880" yWindow="1240" windowWidth="26980" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="懷舊電影" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="224">
   <si>
     <t>美國</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,18 +495,12 @@
     <t>fig/NCCU-32-Movie/NCCU-32-117.jpeg</t>
   </si>
   <si>
-    <t>fig/NCCU-32-Movie/NCCU-32-118.jpeg</t>
-  </si>
-  <si>
     <t>fig/NCCU-32-Movie/NCCU-32-119.jpeg</t>
   </si>
   <si>
     <t>NCCU-32-NM117.html</t>
   </si>
   <si>
-    <t>NCCU-32-NM118.html</t>
-  </si>
-  <si>
     <t>NCCU-32-NM119.html</t>
   </si>
   <si>
@@ -541,14 +535,6 @@
   </si>
   <si>
     <t>The Magnificent Seve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情婦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Witness for the Prosecution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1249,13 +1235,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="O19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="1" topLeftCell="O9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1292,7 +1278,7 @@
         <v>89</v>
       </c>
       <c r="H1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1318,7 +1304,7 @@
         <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1344,7 +1330,7 @@
         <v>91</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1370,7 +1356,7 @@
         <v>92</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1442,7 +1428,7 @@
         <v>95</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1468,7 +1454,7 @@
         <v>96</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1494,7 +1480,7 @@
         <v>97</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1520,7 +1506,7 @@
         <v>98</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1546,7 +1532,7 @@
         <v>99</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1572,7 +1558,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1598,7 +1584,7 @@
         <v>101</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1647,7 +1633,7 @@
         <v>103</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1673,7 +1659,7 @@
         <v>104</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1699,7 +1685,7 @@
         <v>105</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1713,24 +1699,24 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
         <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -1739,21 +1725,24 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -1762,24 +1751,24 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -1788,24 +1777,24 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -1814,24 +1803,24 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -1846,44 +1835,41 @@
         <v>179</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" t="s">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -1892,21 +1878,21 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -1915,21 +1901,21 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -1938,21 +1924,21 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -1961,21 +1947,21 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -1984,21 +1970,21 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -2007,21 +1993,21 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>208</v>
+        <v>112</v>
+      </c>
+      <c r="H30" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -2030,21 +2016,21 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -2053,21 +2039,21 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -2076,21 +2062,21 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" t="s">
-        <v>211</v>
+        <v>115</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -2099,21 +2085,21 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -2122,21 +2108,21 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -2145,21 +2131,21 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="G36" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -2168,21 +2154,21 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F37" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G37" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -2191,67 +2177,70 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="G39" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
         <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>85</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -2260,24 +2249,24 @@
         <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="G41" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
@@ -2286,166 +2275,140 @@
         <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F42" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="G42" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>403</v>
+        <v>501</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>501</v>
+        <v>601</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
         <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="G44" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C45" t="s">
         <v>122</v>
       </c>
       <c r="D45" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" t="s">
         <v>158</v>
       </c>
-      <c r="F45" t="s">
-        <v>160</v>
-      </c>
       <c r="G45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
         <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>165</v>
+      </c>
+      <c r="E46" t="s">
+        <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G46" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s">
         <v>122</v>
       </c>
       <c r="D47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" t="s">
         <v>169</v>
       </c>
-      <c r="E47" t="s">
-        <v>172</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>170</v>
       </c>
-      <c r="G47" t="s">
-        <v>171</v>
-      </c>
       <c r="H47" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
-        <v>604</v>
-      </c>
-      <c r="B48" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" t="s">
-        <v>175</v>
-      </c>
-      <c r="F48" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" t="s">
-        <v>174</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2464,32 +2427,32 @@
     <hyperlink ref="H16" r:id="rId11" xr:uid="{59BA893B-8004-9144-90DB-DFC2C62D5E10}"/>
     <hyperlink ref="H17" r:id="rId12" xr:uid="{8E436B14-144E-C44C-B336-7230132DCD84}"/>
     <hyperlink ref="H18" r:id="rId13" xr:uid="{857D46A1-4CB6-CA4F-8C5C-D5FFFD4FD994}"/>
-    <hyperlink ref="H20" r:id="rId14" xr:uid="{3646289C-6B1E-C54C-BF3F-B35D5DC50E64}"/>
-    <hyperlink ref="H21" r:id="rId15" xr:uid="{53FE0AB8-4C5C-F549-9D97-C76D6D7255F6}"/>
-    <hyperlink ref="H22" r:id="rId16" xr:uid="{5A646FB1-59B6-BD47-85C8-B5C35C2B18CB}"/>
-    <hyperlink ref="H23" r:id="rId17" xr:uid="{41B55B40-DBFC-2E4B-B7A7-10EEEE024445}"/>
-    <hyperlink ref="H24" r:id="rId18" xr:uid="{22CA6DFF-9AA0-6C4F-BD36-8BCD0FAC9DAF}"/>
-    <hyperlink ref="H25" r:id="rId19" xr:uid="{DEC19E04-52F1-2F40-88BB-0655F2FBA485}"/>
-    <hyperlink ref="H26" r:id="rId20" xr:uid="{3BCF815C-28FC-884B-BB1C-996C496C709A}"/>
-    <hyperlink ref="H27" r:id="rId21" xr:uid="{371EF8D0-0498-7940-B1A8-5201C9281F15}"/>
-    <hyperlink ref="H28" r:id="rId22" xr:uid="{034916C9-1CC4-6A4A-8E06-9F91C4DF4A04}"/>
-    <hyperlink ref="H29" r:id="rId23" xr:uid="{3CD5208F-3FD0-9E43-8C2D-4833B3B2CE4E}"/>
-    <hyperlink ref="H30" r:id="rId24" xr:uid="{C3B634FD-72CE-F541-A0E3-FFAD7B7D5183}"/>
-    <hyperlink ref="H34" r:id="rId25" xr:uid="{7E98D375-45CB-9F44-9C68-11CBF3A84A5C}"/>
-    <hyperlink ref="H35" r:id="rId26" xr:uid="{F5A14371-984A-1A4D-847C-D2783C0E4B58}"/>
-    <hyperlink ref="H36" r:id="rId27" xr:uid="{1E235D51-4C81-1C45-8442-795754158D12}"/>
-    <hyperlink ref="H37" r:id="rId28" xr:uid="{40A232D3-45C9-6747-91AF-BBFA1DFA08D4}"/>
-    <hyperlink ref="H38" r:id="rId29" xr:uid="{20BA03A7-32B5-C740-AEFC-CE9375C79B40}"/>
-    <hyperlink ref="H39" r:id="rId30" xr:uid="{A04F14BD-3F90-1744-9F81-08762E7849A1}"/>
-    <hyperlink ref="H40" r:id="rId31" xr:uid="{329D4A67-589C-D04D-A5F5-80A19364C7A4}"/>
-    <hyperlink ref="H41" r:id="rId32" xr:uid="{0F9FFC27-7797-064F-B389-CB83FBB41153}"/>
-    <hyperlink ref="H42" r:id="rId33" xr:uid="{D11C2D25-D089-424A-97D0-D2598DFE2324}"/>
-    <hyperlink ref="H43" r:id="rId34" xr:uid="{557DE8F4-BAAB-664F-82A7-3BED2EC5C070}"/>
-    <hyperlink ref="H44" r:id="rId35" xr:uid="{C7A03DA4-F507-EC4C-B731-7E69D01B053D}"/>
-    <hyperlink ref="H45" r:id="rId36" xr:uid="{1BF9F36F-4E8A-CC46-9818-DB6F0E21B33E}"/>
-    <hyperlink ref="H46" r:id="rId37" xr:uid="{C814302F-D7B4-544A-BB1F-66D808DCED0E}"/>
-    <hyperlink ref="H47" r:id="rId38" xr:uid="{F7555A3C-2844-7040-8735-A1AD680CCF5A}"/>
-    <hyperlink ref="H48" r:id="rId39" xr:uid="{54BF9FEF-1458-1C41-A7ED-F9028853231F}"/>
+    <hyperlink ref="H19" r:id="rId14" xr:uid="{3646289C-6B1E-C54C-BF3F-B35D5DC50E64}"/>
+    <hyperlink ref="H20" r:id="rId15" xr:uid="{53FE0AB8-4C5C-F549-9D97-C76D6D7255F6}"/>
+    <hyperlink ref="H21" r:id="rId16" xr:uid="{5A646FB1-59B6-BD47-85C8-B5C35C2B18CB}"/>
+    <hyperlink ref="H22" r:id="rId17" xr:uid="{41B55B40-DBFC-2E4B-B7A7-10EEEE024445}"/>
+    <hyperlink ref="H23" r:id="rId18" xr:uid="{22CA6DFF-9AA0-6C4F-BD36-8BCD0FAC9DAF}"/>
+    <hyperlink ref="H24" r:id="rId19" xr:uid="{DEC19E04-52F1-2F40-88BB-0655F2FBA485}"/>
+    <hyperlink ref="H25" r:id="rId20" xr:uid="{3BCF815C-28FC-884B-BB1C-996C496C709A}"/>
+    <hyperlink ref="H26" r:id="rId21" xr:uid="{371EF8D0-0498-7940-B1A8-5201C9281F15}"/>
+    <hyperlink ref="H27" r:id="rId22" xr:uid="{034916C9-1CC4-6A4A-8E06-9F91C4DF4A04}"/>
+    <hyperlink ref="H28" r:id="rId23" xr:uid="{3CD5208F-3FD0-9E43-8C2D-4833B3B2CE4E}"/>
+    <hyperlink ref="H29" r:id="rId24" xr:uid="{C3B634FD-72CE-F541-A0E3-FFAD7B7D5183}"/>
+    <hyperlink ref="H33" r:id="rId25" xr:uid="{7E98D375-45CB-9F44-9C68-11CBF3A84A5C}"/>
+    <hyperlink ref="H34" r:id="rId26" xr:uid="{F5A14371-984A-1A4D-847C-D2783C0E4B58}"/>
+    <hyperlink ref="H35" r:id="rId27" xr:uid="{1E235D51-4C81-1C45-8442-795754158D12}"/>
+    <hyperlink ref="H36" r:id="rId28" xr:uid="{40A232D3-45C9-6747-91AF-BBFA1DFA08D4}"/>
+    <hyperlink ref="H37" r:id="rId29" xr:uid="{20BA03A7-32B5-C740-AEFC-CE9375C79B40}"/>
+    <hyperlink ref="H38" r:id="rId30" xr:uid="{A04F14BD-3F90-1744-9F81-08762E7849A1}"/>
+    <hyperlink ref="H39" r:id="rId31" xr:uid="{329D4A67-589C-D04D-A5F5-80A19364C7A4}"/>
+    <hyperlink ref="H40" r:id="rId32" xr:uid="{0F9FFC27-7797-064F-B389-CB83FBB41153}"/>
+    <hyperlink ref="H41" r:id="rId33" xr:uid="{D11C2D25-D089-424A-97D0-D2598DFE2324}"/>
+    <hyperlink ref="H42" r:id="rId34" xr:uid="{557DE8F4-BAAB-664F-82A7-3BED2EC5C070}"/>
+    <hyperlink ref="H43" r:id="rId35" xr:uid="{C7A03DA4-F507-EC4C-B731-7E69D01B053D}"/>
+    <hyperlink ref="H44" r:id="rId36" xr:uid="{1BF9F36F-4E8A-CC46-9818-DB6F0E21B33E}"/>
+    <hyperlink ref="H45" r:id="rId37" xr:uid="{C814302F-D7B4-544A-BB1F-66D808DCED0E}"/>
+    <hyperlink ref="H46" r:id="rId38" xr:uid="{F7555A3C-2844-7040-8735-A1AD680CCF5A}"/>
+    <hyperlink ref="H47" r:id="rId39" xr:uid="{54BF9FEF-1458-1C41-A7ED-F9028853231F}"/>
     <hyperlink ref="H3" r:id="rId40" xr:uid="{9DC7E79D-4131-7042-B41F-068588A78D25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
